--- a/aiurt-module-system/src/main/resources/templates/deviceType.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/deviceType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B40EC4-75FD-4733-8BD2-26FB6D887491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E2244-A324-4EF6-85D1-9DDA58DE4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1095" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="750" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备分类导入模板" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>设备分类导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,20 +59,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备分类导入模板
-填写须知：
+    <t>上级节点-名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备组成对应的物资编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
-1.分类状态 : 分为停用和正常
-2.是否特种设备 : 分为是和否
-3.是否尾节点 :  分为是和否
-4.上级节点: 不填为父节点
-5.红底白字为必填项!!!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级节点-名称</t>
+1.上级节点: 不填为父节点，且系统中已存在；
+2.分类编号：必填；
+3.分类名称：非必填；
+4.分类状态：选择“停用”或“正常”；
+5.特种设备：选择“否”或“是”；
+6.是否尾节点：选择“否”或“是”；
+7.设备组成对应的物资编码：当为节点选择“是”，支持选择设备组成对应的物资编码；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +124,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -140,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,15 +176,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -188,9 +192,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,10 +486,11 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -497,11 +500,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -510,8 +514,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -535,12 +540,15 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aiurt-module-system/src/main/resources/templates/deviceType.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/deviceType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E2244-A324-4EF6-85D1-9DDA58DE4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FA3F8-39C6-4D14-938A-DC465606F398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="750" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1590" yWindow="1755" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备分类导入模板" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
-1.上级节点: 不填为父节点，且系统中已存在；
+1.上级节点: 不填为父节点，且系统中已存在 请按 分类一级-分类二级-分类三级  填写；
 2.分类编号：必填；
 3.分类名称：非必填；
 4.分类状态：选择“停用”或“正常”；
@@ -186,13 +186,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,30 +491,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -541,7 +541,7 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
